--- a/GenP Task_2.xlsx
+++ b/GenP Task_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de1ca9bccdc549e1/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitk-my.sharepoint.com/personal/jiyaverma22_iitk_ac_in/Documents/GenP_task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AEFB794-98E8-4D9B-A9D9-4E42126A91FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{6AEFB794-98E8-4D9B-A9D9-4E42126A91FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C4EBD00-0810-4E43-8C2B-CA67874F1F24}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{F59640E0-9C63-41B6-AF3F-BB39F38A91B2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>NAME</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>REPO LINK</t>
+  </si>
+  <si>
+    <t>jiya</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129414EC-6635-446B-9A7B-E15A0924CDD3}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,6 +430,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GenP Task_2.xlsx
+++ b/GenP Task_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitk-my.sharepoint.com/personal/jiyaverma22_iitk_ac_in/Documents/GenP_task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6AEFB794-98E8-4D9B-A9D9-4E42126A91FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C4EBD00-0810-4E43-8C2B-CA67874F1F24}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6AEFB794-98E8-4D9B-A9D9-4E42126A91FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B609ADA-923F-423D-B957-F8CA5FAA9C1C}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{F59640E0-9C63-41B6-AF3F-BB39F38A91B2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NAME</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>REPO LINK</t>
-  </si>
-  <si>
-    <t>jiya</t>
   </si>
 </sst>
 </file>
@@ -406,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129414EC-6635-446B-9A7B-E15A0924CDD3}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -430,11 +427,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
